--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.926932</v>
+        <v>15.83809466666666</v>
       </c>
       <c r="H2">
-        <v>140.780796</v>
+        <v>47.514284</v>
       </c>
       <c r="I2">
-        <v>0.3970508522302298</v>
+        <v>0.216761684821562</v>
       </c>
       <c r="J2">
-        <v>0.3970508522302298</v>
+        <v>0.216761684821562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.7608</v>
+        <v>8.586181333333334</v>
       </c>
       <c r="N2">
-        <v>62.2824</v>
+        <v>25.758544</v>
       </c>
       <c r="O2">
-        <v>0.3489417963420857</v>
+        <v>0.2026609900758243</v>
       </c>
       <c r="P2">
-        <v>0.3489417963420857</v>
+        <v>0.2026609900758243</v>
       </c>
       <c r="Q2">
-        <v>974.2406498655999</v>
+        <v>135.9887527824995</v>
       </c>
       <c r="R2">
-        <v>8768.165848790401</v>
+        <v>1223.898775042496</v>
       </c>
       <c r="S2">
-        <v>0.1385476376163724</v>
+        <v>0.04392913765644153</v>
       </c>
       <c r="T2">
-        <v>0.1385476376163724</v>
+        <v>0.04392913765644153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.926932</v>
+        <v>15.83809466666666</v>
       </c>
       <c r="H3">
-        <v>140.780796</v>
+        <v>47.514284</v>
       </c>
       <c r="I3">
-        <v>0.3970508522302298</v>
+        <v>0.216761684821562</v>
       </c>
       <c r="J3">
-        <v>0.3970508522302298</v>
+        <v>0.216761684821562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>69.09898799999999</v>
       </c>
       <c r="O3">
-        <v>0.3871322395755498</v>
+        <v>0.5436514315916885</v>
       </c>
       <c r="P3">
-        <v>0.3871322395755498</v>
+        <v>0.5436514315916886</v>
       </c>
       <c r="Q3">
-        <v>1080.867837048272</v>
+        <v>364.7987711049546</v>
       </c>
       <c r="R3">
-        <v>9727.810533434447</v>
+        <v>3283.188939944591</v>
       </c>
       <c r="S3">
-        <v>0.1537111856492695</v>
+        <v>0.1178428002674685</v>
       </c>
       <c r="T3">
-        <v>0.1537111856492696</v>
+        <v>0.1178428002674686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.926932</v>
+        <v>15.83809466666666</v>
       </c>
       <c r="H4">
-        <v>140.780796</v>
+        <v>47.514284</v>
       </c>
       <c r="I4">
-        <v>0.3970508522302298</v>
+        <v>0.216761684821562</v>
       </c>
       <c r="J4">
-        <v>0.3970508522302298</v>
+        <v>0.216761684821562</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.70265933333333</v>
+        <v>10.74803566666667</v>
       </c>
       <c r="N4">
-        <v>47.107978</v>
+        <v>32.244107</v>
       </c>
       <c r="O4">
-        <v>0.2639259640823645</v>
+        <v>0.2536875783324871</v>
       </c>
       <c r="P4">
-        <v>0.2639259640823645</v>
+        <v>0.2536875783324871</v>
       </c>
       <c r="Q4">
-        <v>736.8776267544988</v>
+        <v>170.2284063693764</v>
       </c>
       <c r="R4">
-        <v>6631.898640790489</v>
+        <v>1532.055657324388</v>
       </c>
       <c r="S4">
-        <v>0.1047920289645878</v>
+        <v>0.05498974689765188</v>
       </c>
       <c r="T4">
-        <v>0.1047920289645878</v>
+        <v>0.05498974689765188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>90.655867</v>
       </c>
       <c r="I5">
-        <v>0.2556811033517694</v>
+        <v>0.4135749676850743</v>
       </c>
       <c r="J5">
-        <v>0.2556811033517694</v>
+        <v>0.4135749676850743</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.7608</v>
+        <v>8.586181333333334</v>
       </c>
       <c r="N5">
-        <v>62.2824</v>
+        <v>25.758544</v>
       </c>
       <c r="O5">
-        <v>0.3489417963420857</v>
+        <v>0.2026609900758243</v>
       </c>
       <c r="P5">
-        <v>0.3489417963420857</v>
+        <v>0.2026609900758243</v>
       </c>
       <c r="Q5">
-        <v>627.3627745378666</v>
+        <v>259.4625709975165</v>
       </c>
       <c r="R5">
-        <v>5646.2649708408</v>
+        <v>2335.163138977648</v>
       </c>
       <c r="S5">
-        <v>0.08921782349429289</v>
+        <v>0.08381551242163419</v>
       </c>
       <c r="T5">
-        <v>0.08921782349429289</v>
+        <v>0.08381551242163419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>90.655867</v>
       </c>
       <c r="I6">
-        <v>0.2556811033517694</v>
+        <v>0.4135749676850743</v>
       </c>
       <c r="J6">
-        <v>0.2556811033517694</v>
+        <v>0.4135749676850743</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>69.09898799999999</v>
       </c>
       <c r="O6">
-        <v>0.3871322395755498</v>
+        <v>0.5436514315916885</v>
       </c>
       <c r="P6">
-        <v>0.3871322395755498</v>
+        <v>0.5436514315916886</v>
       </c>
       <c r="Q6">
         <v>696.0254073291773</v>
@@ -818,10 +818,10 @@
         <v>6264.228665962595</v>
       </c>
       <c r="S6">
-        <v>0.0989823981577181</v>
+        <v>0.2248406232524769</v>
       </c>
       <c r="T6">
-        <v>0.09898239815771812</v>
+        <v>0.224840623252477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>90.655867</v>
       </c>
       <c r="I7">
-        <v>0.2556811033517694</v>
+        <v>0.4135749676850743</v>
       </c>
       <c r="J7">
-        <v>0.2556811033517694</v>
+        <v>0.4135749676850743</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.70265933333333</v>
+        <v>10.74803566666667</v>
       </c>
       <c r="N7">
-        <v>47.107978</v>
+        <v>32.244107</v>
       </c>
       <c r="O7">
-        <v>0.2639259640823645</v>
+        <v>0.2536875783324871</v>
       </c>
       <c r="P7">
-        <v>0.2639259640823645</v>
+        <v>0.2536875783324871</v>
       </c>
       <c r="Q7">
-        <v>474.5127320229918</v>
+        <v>324.7908306361965</v>
       </c>
       <c r="R7">
-        <v>4270.614588206926</v>
+        <v>2923.117475725769</v>
       </c>
       <c r="S7">
-        <v>0.06748088169975841</v>
+        <v>0.1049188320109631</v>
       </c>
       <c r="T7">
-        <v>0.06748088169975841</v>
+        <v>0.1049188320109631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.04316566666666</v>
+        <v>27.01013833333333</v>
       </c>
       <c r="H8">
-        <v>123.129497</v>
+        <v>81.030415</v>
       </c>
       <c r="I8">
-        <v>0.3472680444180009</v>
+        <v>0.3696633474933637</v>
       </c>
       <c r="J8">
-        <v>0.3472680444180009</v>
+        <v>0.3696633474933637</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.7608</v>
+        <v>8.586181333333334</v>
       </c>
       <c r="N8">
-        <v>62.2824</v>
+        <v>25.758544</v>
       </c>
       <c r="O8">
-        <v>0.3489417963420857</v>
+        <v>0.2026609900758243</v>
       </c>
       <c r="P8">
-        <v>0.3489417963420857</v>
+        <v>0.2026609900758243</v>
       </c>
       <c r="Q8">
-        <v>852.0889537725332</v>
+        <v>231.9139455684178</v>
       </c>
       <c r="R8">
-        <v>7668.800583952799</v>
+        <v>2087.22551011576</v>
       </c>
       <c r="S8">
-        <v>0.1211763352314204</v>
+        <v>0.07491633999774856</v>
       </c>
       <c r="T8">
-        <v>0.1211763352314204</v>
+        <v>0.07491633999774858</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.04316566666666</v>
+        <v>27.01013833333333</v>
       </c>
       <c r="H9">
-        <v>123.129497</v>
+        <v>81.030415</v>
       </c>
       <c r="I9">
-        <v>0.3472680444180009</v>
+        <v>0.3696633474933637</v>
       </c>
       <c r="J9">
-        <v>0.3472680444180009</v>
+        <v>0.3696633474933637</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>69.09898799999999</v>
       </c>
       <c r="O9">
-        <v>0.3871322395755498</v>
+        <v>0.5436514315916885</v>
       </c>
       <c r="P9">
-        <v>0.3871322395755498</v>
+        <v>0.5436514315916886</v>
       </c>
       <c r="Q9">
-        <v>945.3470706276704</v>
+        <v>622.1244081911133</v>
       </c>
       <c r="R9">
-        <v>8508.123635649034</v>
+        <v>5599.11967372002</v>
       </c>
       <c r="S9">
-        <v>0.1344386557685622</v>
+        <v>0.200968008071743</v>
       </c>
       <c r="T9">
-        <v>0.1344386557685622</v>
+        <v>0.200968008071743</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.04316566666666</v>
+        <v>27.01013833333333</v>
       </c>
       <c r="H10">
-        <v>123.129497</v>
+        <v>81.030415</v>
       </c>
       <c r="I10">
-        <v>0.3472680444180009</v>
+        <v>0.3696633474933637</v>
       </c>
       <c r="J10">
-        <v>0.3472680444180009</v>
+        <v>0.3696633474933637</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.70265933333333</v>
+        <v>10.74803566666667</v>
       </c>
       <c r="N10">
-        <v>47.107978</v>
+        <v>32.244107</v>
       </c>
       <c r="O10">
-        <v>0.2639259640823645</v>
+        <v>0.2536875783324871</v>
       </c>
       <c r="P10">
-        <v>0.2639259640823645</v>
+        <v>0.2536875783324871</v>
       </c>
       <c r="Q10">
-        <v>644.4868484252295</v>
+        <v>290.3059301682672</v>
       </c>
       <c r="R10">
-        <v>5800.381635827066</v>
+        <v>2612.753371514405</v>
       </c>
       <c r="S10">
-        <v>0.09165305341801824</v>
+        <v>0.09377899942387209</v>
       </c>
       <c r="T10">
-        <v>0.09165305341801824</v>
+        <v>0.09377899942387212</v>
       </c>
     </row>
   </sheetData>
